--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C601056-C6D2-480A-A7F4-EDE57BD7F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F1CF99-9BE3-4EDA-AA1B-916BFF385794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Features</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Accuracy/Train</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,6 +410,20 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F1CF99-9BE3-4EDA-AA1B-916BFF385794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F34406-03AA-4DCE-8B1C-E0423B5A1256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Features</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>NN</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -67,15 +70,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -83,13 +104,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,59 +496,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>0.89700000000000002</v>
       </c>
-      <c r="D3">
-        <v>0.89700000000000002</v>
-      </c>
+      <c r="D3" s="7">
+        <v>0.89912499999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F34406-03AA-4DCE-8B1C-E0423B5A1256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0E3D1-5D36-4A20-BC65-547DB8E1B34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Features</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Accuracy/Test</t>
-  </si>
-  <si>
     <t>Accuracy/Train</t>
   </si>
   <si>
@@ -49,13 +46,43 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Plain + gaussian</t>
+  </si>
+  <si>
+    <t>Plain + gaussian + mean</t>
+  </si>
+  <si>
+    <t>Accuracy/Kaggle</t>
+  </si>
+  <si>
+    <t>Plain + gaussian + mean + var</t>
+  </si>
+  <si>
+    <t>Plain  + colhist + var</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>C.H</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Linear SVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +96,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +136,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -118,17 +189,6 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -177,6 +237,48 @@
       <right style="thin">
         <color theme="0"/>
       </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -189,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,25 +299,93 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,79 +666,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="2" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="H9" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.89912499999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="4">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="4">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I13" s="13">
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.89912499999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" s="13"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0E3D1-5D36-4A20-BC65-547DB8E1B34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182AC3E-BB13-435E-9826-3FE887C9EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>Features</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Plain</t>
   </si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>Linear SVM</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Select from model (logistic regression)</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,36 +686,36 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="28"/>
@@ -720,7 +723,7 @@
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
       <c r="G2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="9">
         <v>0.94599999999999995</v>
@@ -737,7 +740,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4">
         <v>0.94699999999999995</v>
@@ -754,7 +757,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="28"/>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4">
         <v>0.94499999999999995</v>
@@ -771,7 +774,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <v>0.97599999999999998</v>
@@ -802,82 +805,84 @@
       <c r="D7" s="24"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="4">
-        <v>0.97799999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="I7" s="12">
-        <v>0.98</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.89912499999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.89912499999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>0.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.751</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -885,46 +890,78 @@
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4">
-        <v>0.97299999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="I12" s="13">
-        <v>0.96899999999999997</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="36"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="12"/>
       <c r="H13" s="4">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="4">
         <v>0.95099999999999996</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I15" s="13">
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182AC3E-BB13-435E-9826-3FE887C9EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0CE21D-17EE-4D95-954E-C5B34288A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="2016" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>Plain</t>
   </si>
@@ -79,13 +81,34 @@
   </si>
   <si>
     <t>Select from model (logistic regression)</t>
+  </si>
+  <si>
+    <t>20 arvores</t>
+  </si>
+  <si>
+    <t>10 arvores</t>
+  </si>
+  <si>
+    <t># Trees</t>
+  </si>
+  <si>
+    <t>Feature selection?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Normalized?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +136,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -290,11 +333,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +469,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,6 +479,99 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +899,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -733,7 +918,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25"/>
@@ -750,7 +935,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="16"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -767,7 +952,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="16"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -784,13 +969,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="4">
         <v>0.98899999999999999</v>
       </c>
@@ -799,7 +986,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -816,13 +1003,15 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="4">
         <v>0.97799999999999998</v>
       </c>
@@ -831,7 +1020,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -867,7 +1056,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
@@ -886,7 +1075,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -903,7 +1092,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -918,7 +1107,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -966,4 +1155,428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73132D4-F8B8-4F5A-8370-423045E54993}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="68">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H2" s="68">
+        <v>0.97</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="68">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="H3" s="69">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="68">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H4" s="69">
+        <v>0.751</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="68">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H5" s="69">
+        <v>0.98</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="68">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="68">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="69">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FBB2DF-EC39-4F1F-8BEA-5B28E8D4F705}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="58">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="I2" s="59">
+        <v>10</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="30">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I3" s="60">
+        <v>10</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="30">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I4" s="59">
+        <v>10</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="60">
+        <v>10</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="30">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I6" s="62">
+        <v>10</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="30">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="64">
+        <v>10</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I8" s="60">
+        <v>10</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I9" s="60">
+        <v>20</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="H10" s="65">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I10" s="10">
+        <v>30</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0CE21D-17EE-4D95-954E-C5B34288A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB650A-6407-463A-9D61-4A02646A7C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="2016" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="1740" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>Plain</t>
   </si>
@@ -102,6 +102,45 @@
   </si>
   <si>
     <t>Normalized?</t>
+  </si>
+  <si>
+    <t>Acc/K</t>
+  </si>
+  <si>
+    <t>Acc/Tr</t>
+  </si>
+  <si>
+    <t>RoC/T</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>T.t.T</t>
+  </si>
+  <si>
+    <t>6m45s</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>4m30</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>Feat. selec?</t>
   </si>
 </sst>
 </file>
@@ -383,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,9 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,15 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,6 +599,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -918,7 +963,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25"/>
@@ -935,7 +980,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="16"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -952,7 +997,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="16"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -969,7 +1014,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
@@ -986,7 +1031,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -1003,7 +1048,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
@@ -1020,7 +1065,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -1056,7 +1101,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
@@ -1075,7 +1120,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -1092,7 +1137,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1107,7 +1152,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -1159,55 +1204,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73132D4-F8B8-4F5A-8370-423045E54993}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="6" width="5.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="39" t="s">
+      <c r="G1" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="N1" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="16"/>
@@ -1215,122 +1273,216 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="68">
+      <c r="G2" s="64">
         <v>0.97799999999999998</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="64">
         <v>0.97</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="M2" s="52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="N2" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="67"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="68">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="H3" s="69">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="64">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J3" s="64">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="64">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
       <c r="B4" s="16"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="68">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="H4" s="69">
-        <v>0.751</v>
-      </c>
-      <c r="I4" s="56" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="64">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H4" s="65">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I4" s="65">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J4" s="65">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K4" s="65">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="M4" s="52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="N4" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
       <c r="B5" s="16"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="68">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="H5" s="69">
-        <v>0.98</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="57" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="64">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H5" s="65">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I5" s="65">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J5" s="65">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="K5" s="65">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L5" s="53" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="M5" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="68">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="H6" s="69">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="64">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H6" s="65">
+        <v>0.751</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="M6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="68">
+      <c r="G7" s="64">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H7" s="65">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="64">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H8" s="65">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="64">
         <v>0.99</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H9" s="65">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="M9" s="53" t="s">
         <v>23</v>
       </c>
+      <c r="N9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1359,102 +1511,102 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="58">
+      <c r="F2" s="44"/>
+      <c r="G2" s="54">
         <v>0.94599999999999995</v>
       </c>
       <c r="H2" s="10">
         <v>0.95</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="55">
         <v>10</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="30">
         <v>0.94699999999999995</v>
       </c>
       <c r="H3" s="10">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="56">
         <v>10</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="16"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="30">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="57">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="55">
         <v>10</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30">
         <v>0.94499999999999995</v>
@@ -1462,19 +1614,19 @@
       <c r="H5" s="10">
         <v>0.95</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="56">
         <v>10</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="35"/>
       <c r="G6" s="30">
         <v>0.94299999999999995</v>
@@ -1482,90 +1634,90 @@
       <c r="H6" s="30">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="58">
         <v>10</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="30">
         <v>0.97799999999999998</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="59">
         <v>0.98</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="60">
         <v>10</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="30">
         <v>0.98899999999999999</v>
       </c>
       <c r="H8" s="10">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="56">
         <v>10</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="30">
         <v>0.99</v>
       </c>
       <c r="H9" s="10">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="56">
         <v>20</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="55"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="30">
         <v>0.99</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="61">
         <v>0.98199999999999998</v>
       </c>
       <c r="I10" s="10">
         <v>30</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="53" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB650A-6407-463A-9D61-4A02646A7C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077BF75-7FD9-4351-974C-B76C0D9A1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="1740" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,12 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,12 +589,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +605,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,7 +945,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -963,7 +964,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25"/>
@@ -980,7 +981,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="16"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -997,7 +998,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="16"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -1014,7 +1015,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
@@ -1031,7 +1032,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -1048,7 +1049,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
@@ -1065,7 +1066,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="62" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
@@ -1120,7 +1121,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -1137,7 +1138,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1152,7 +1153,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -1204,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73132D4-F8B8-4F5A-8370-423045E54993}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,265 +1221,274 @@
     <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="64">
+      <c r="B2" s="48"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H2" s="42">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="I2" s="42">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J2" s="42">
+        <v>0.755</v>
+      </c>
+      <c r="K2" s="42">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42">
         <v>0.97799999999999998</v>
       </c>
-      <c r="H2" s="64">
-        <v>0.97</v>
-      </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="52" t="s">
+      <c r="J3" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="42">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K4" s="42">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="J3" s="64">
+      <c r="N4" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J5" s="42">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="K5" s="42">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0.751</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="42">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H7" s="42">
         <v>0.98</v>
       </c>
-      <c r="K3" s="64">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="L3" s="53" t="s">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="64">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="H4" s="65">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="I4" s="65">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J4" s="65">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="K4" s="65">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="L4" s="52" t="s">
+      <c r="M8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="64">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H5" s="65">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I5" s="65">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J5" s="65">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="K5" s="65">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L5" s="53" t="s">
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42">
+        <v>0.99</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="64">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="H6" s="65">
-        <v>0.751</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="36"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="64">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="H7" s="65">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="36"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="64">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="H8" s="65">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="64">
-        <v>0.99</v>
-      </c>
-      <c r="H9" s="65">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="36"/>
+      <c r="N9" s="42"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1511,102 +1521,102 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="54">
+      <c r="F2" s="42"/>
+      <c r="G2" s="52">
         <v>0.94599999999999995</v>
       </c>
       <c r="H2" s="10">
         <v>0.95</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="53">
         <v>10</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="30">
         <v>0.94699999999999995</v>
       </c>
       <c r="H3" s="10">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="54">
         <v>10</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="43"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="30">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="55">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <v>10</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30">
         <v>0.94499999999999995</v>
@@ -1614,19 +1624,19 @@
       <c r="H5" s="10">
         <v>0.95</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="54">
         <v>10</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="35"/>
       <c r="G6" s="30">
         <v>0.94299999999999995</v>
@@ -1634,90 +1644,90 @@
       <c r="H6" s="30">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="56">
         <v>10</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="30">
         <v>0.97799999999999998</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="57">
         <v>0.98</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="58">
         <v>10</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="30">
         <v>0.98899999999999999</v>
       </c>
       <c r="H8" s="10">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="54">
         <v>10</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="46"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="30">
         <v>0.99</v>
       </c>
       <c r="H9" s="10">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="54">
         <v>20</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="51"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="30">
         <v>0.99</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="59">
         <v>0.98199999999999998</v>
       </c>
       <c r="I10" s="10">
         <v>30</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="51" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACA\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077BF75-7FD9-4351-974C-B76C0D9A1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173DC95-824E-4F02-84CB-3E61BDE847D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Plain</t>
   </si>
@@ -89,9 +89,6 @@
     <t>10 arvores</t>
   </si>
   <si>
-    <t># Trees</t>
-  </si>
-  <si>
     <t>Feature selection?</t>
   </si>
   <si>
@@ -141,13 +138,25 @@
   </si>
   <si>
     <t>Feat. selec?</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +193,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -252,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -387,30 +404,6 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -422,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,15 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,9 +523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,44 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,9 +562,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,20 +863,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,8 +905,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -963,8 +924,8 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25"/>
@@ -980,8 +941,8 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
       <c r="B4" s="16"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -997,8 +958,8 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
       <c r="B5" s="16"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -1014,8 +975,8 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
@@ -1031,8 +992,8 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -1048,8 +1009,8 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
@@ -1065,8 +1026,8 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -1082,7 +1043,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1101,8 +1062,8 @@
         <v>0.89912499999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
@@ -1120,8 +1081,8 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -1137,8 +1098,8 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1152,8 +1113,8 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -1169,7 +1130,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
@@ -1186,11 +1147,11 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
     </row>
   </sheetData>
@@ -1207,288 +1168,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73132D4-F8B8-4F5A-8370-423045E54993}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="5.77734375" customWidth="1"/>
+    <col min="2" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="D1" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="70" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="I2" s="39">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0.755</v>
+      </c>
+      <c r="K2" s="39">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="H2" s="42">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="I2" s="42">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="J2" s="42">
-        <v>0.755</v>
-      </c>
-      <c r="K2" s="42">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="L2" s="50" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I5" s="39">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J5" s="39">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="J3" s="42">
+      <c r="N5" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.751</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="39">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H7" s="39">
         <v>0.98</v>
       </c>
-      <c r="K3" s="42">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="H4" s="42">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J4" s="42">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="K4" s="42">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="L4" s="50" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="N7" s="39"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H8" s="39">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H5" s="42">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I5" s="42">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J5" s="42">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="K5" s="42">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="H6" s="42">
-        <v>0.751</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="50" t="s">
+      <c r="M8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="39"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="39">
+        <v>0.99</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="42">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="H7" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="42">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42">
-        <v>0.99</v>
-      </c>
-      <c r="H9" s="42">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="42"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P11" s="68"/>
+      <c r="N9" s="39"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1501,242 +1462,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FBB2DF-EC39-4F1F-8BEA-5B28E8D4F705}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="52">
-        <v>0.94599999999999995</v>
+      <c r="F2" s="39"/>
+      <c r="G2" s="48">
+        <v>0.98099999999999998</v>
       </c>
       <c r="H2" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="I2" s="53">
-        <v>10</v>
-      </c>
-      <c r="J2" s="50" t="s">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I2" s="49">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J2" s="49">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K2" s="49">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="L2" s="49">
+        <v>150</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="30">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I3" s="50">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="J3" s="50">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L3" s="50">
+        <v>147</v>
+      </c>
+      <c r="M3" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="30">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="I3" s="54">
-        <v>10</v>
-      </c>
-      <c r="J3" s="50" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="30">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L4" s="10">
+        <v>185</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="30">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I5" s="50">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L5" s="50">
+        <v>151</v>
+      </c>
+      <c r="M5" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="30">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H4" s="55">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I4" s="53">
-        <v>10</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="54">
-        <v>10</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="30">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="I6" s="56">
-        <v>10</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="30">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="H7" s="57">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="58">
-        <v>10</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="30">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="I8" s="54">
-        <v>10</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I9" s="54">
-        <v>20</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="H10" s="59">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I10" s="10">
-        <v>30</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>23</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="62"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="62"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I10">
-    <sortCondition ref="B2:B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L5">
+    <sortCondition ref="B2:B5"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077BF75-7FD9-4351-974C-B76C0D9A1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6A10B-2154-488A-9B08-1A7DE16C275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17556" yWindow="2856" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Plain</t>
   </si>
@@ -128,9 +128,6 @@
     <t>T.t.T</t>
   </si>
   <si>
-    <t>6m45s</t>
-  </si>
-  <si>
     <t>5m</t>
   </si>
   <si>
@@ -141,6 +138,24 @@
   </si>
   <si>
     <t>Feat. selec?</t>
+  </si>
+  <si>
+    <t>4m48</t>
+  </si>
+  <si>
+    <t>6m45</t>
+  </si>
+  <si>
+    <t>6m30</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>TtT</t>
+  </si>
+  <si>
+    <t>6s</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -373,41 +388,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -422,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,42 +488,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,54 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -618,6 +523,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I14"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,7 +871,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -964,7 +890,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25"/>
@@ -981,7 +907,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -998,7 +924,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -1015,7 +941,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
@@ -1032,7 +958,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -1049,7 +975,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
@@ -1066,7 +992,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -1102,7 +1028,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
@@ -1121,7 +1047,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -1138,7 +1064,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1153,7 +1079,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -1207,288 +1133,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73132D4-F8B8-4F5A-8370-423045E54993}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J2" s="35">
+        <v>0.755</v>
+      </c>
+      <c r="K2" s="35">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K4" s="35">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="J5" s="35">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="K5" s="35">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="47">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H6" s="35">
         <v>0.74299999999999999</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I6" s="35">
         <v>0.71799999999999997</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J6" s="35">
         <v>0.755</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K6" s="35">
         <v>0.74299999999999999</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="J3" s="42">
+      <c r="N6" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="47">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J7" s="35">
         <v>0.98</v>
       </c>
-      <c r="K3" s="42">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="L3" s="51" t="s">
+      <c r="K7" s="35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="N7" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="H4" s="42">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J4" s="42">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="K4" s="42">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="L4" s="50" t="s">
+      <c r="M8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="42" t="s">
+      <c r="N8" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H5" s="42">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I5" s="42">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J5" s="42">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="K5" s="42">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="H6" s="42">
-        <v>0.751</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="42">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="H7" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="42">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42">
-        <v>0.99</v>
-      </c>
-      <c r="H9" s="42">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="42"/>
-    </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P11" s="68"/>
+      <c r="P11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1501,242 +1462,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FBB2DF-EC39-4F1F-8BEA-5B28E8D4F705}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="G1" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="N1" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="52">
-        <v>0.94599999999999995</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="H2" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="I2" s="53">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L2" s="10">
         <v>10</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="M2" s="41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="30">
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="10">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H3" s="10">
         <v>0.94699999999999995</v>
       </c>
-      <c r="H3" s="10">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="I3" s="54">
+      <c r="I3" s="10">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="L3" s="10">
         <v>10</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="M3" s="41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="30">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H4" s="55">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I4" s="53">
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
         <v>10</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="M4" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="54">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="J5" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="30">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="I6" s="56">
-        <v>10</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="30">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="H7" s="57">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="58">
-        <v>10</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="30">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="I8" s="54">
-        <v>10</v>
-      </c>
-      <c r="J8" s="51" t="s">
+      <c r="M5" s="42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I9" s="54">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>20</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="M6" s="42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="30">
-        <v>0.99</v>
-      </c>
-      <c r="H10" s="59">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I10" s="10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10">
         <v>30</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="M7" s="42" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I10">
-    <sortCondition ref="B2:B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M7">
+    <sortCondition ref="B2:B7"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6A10B-2154-488A-9B08-1A7DE16C275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E6990-E881-4AEB-B91F-9AE63892FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17556" yWindow="2856" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2856" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Plain</t>
   </si>
@@ -156,13 +156,22 @@
   </si>
   <si>
     <t>6s</t>
+  </si>
+  <si>
+    <t>1m50</t>
+  </si>
+  <si>
+    <t>1m43</t>
+  </si>
+  <si>
+    <t>1m42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +209,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,26 +540,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +889,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16"/>
@@ -890,7 +908,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25"/>
@@ -907,7 +925,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="16"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -924,7 +942,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="16"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -941,7 +959,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
@@ -958,7 +976,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -975,7 +993,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
@@ -992,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -1028,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
@@ -1047,7 +1065,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -1064,7 +1082,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1079,7 +1097,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -1133,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73132D4-F8B8-4F5A-8370-423045E54993}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1209,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="39"/>
@@ -1225,7 +1243,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="39"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -1257,7 +1275,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="38"/>
@@ -1289,7 +1307,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="38"/>
@@ -1321,7 +1339,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
       <c r="D6" s="38"/>
@@ -1353,7 +1371,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
       <c r="D7" s="38"/>
@@ -1385,7 +1403,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="39"/>
       <c r="C8" s="40"/>
       <c r="D8" s="38"/>
@@ -1417,7 +1435,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="39"/>
       <c r="C9" s="40"/>
       <c r="D9" s="38"/>
@@ -1465,7 +1483,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,12 +1533,12 @@
       <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="39"/>
@@ -1528,7 +1546,7 @@
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
-      <c r="G2" s="52">
+      <c r="G2" s="48">
         <v>0.96499999999999997</v>
       </c>
       <c r="H2" s="10">
@@ -1549,12 +1567,12 @@
       <c r="M2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="38"/>
@@ -1581,84 +1599,128 @@
       <c r="M3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="38"/>
       <c r="E4" s="37"/>
       <c r="F4" s="36"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.96199999999999997</v>
+      </c>
       <c r="L4" s="10">
         <v>10</v>
       </c>
       <c r="M4" s="41" t="s">
         <v>22</v>
       </c>
+      <c r="N4" s="55" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="38"/>
       <c r="E5" s="37"/>
       <c r="F5" s="36"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="H5" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.97099999999999997</v>
+      </c>
       <c r="L5" s="10">
         <v>10</v>
       </c>
       <c r="M5" s="42" t="s">
         <v>23</v>
       </c>
+      <c r="N5" s="55" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
       <c r="D6" s="38"/>
       <c r="E6" s="37"/>
       <c r="F6" s="36"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="H6" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="L6" s="10">
         <v>20</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>23</v>
       </c>
+      <c r="N6" s="55" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
       <c r="D7" s="38"/>
       <c r="E7" s="37"/>
       <c r="F7" s="36"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="H7" s="10">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.98899999999999999</v>
+      </c>
       <c r="L7" s="10">
         <v>30</v>
       </c>
       <c r="M7" s="42" t="s">
         <v>23</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1668,6 +1730,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A7"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
